--- a/data/trans_orig/P57B4_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>253702</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>229134</v>
+        <v>228710</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>280049</v>
+        <v>276524</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.4607580420604271</v>
+        <v>0.4607580420604273</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4161389224351792</v>
+        <v>0.4153693443277121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5086089145023462</v>
+        <v>0.5022068293420259</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>302</v>
@@ -762,19 +762,19 @@
         <v>225037</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>206056</v>
+        <v>207131</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>243901</v>
+        <v>245391</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4622351535190731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4232479195255525</v>
+        <v>0.425455371724208</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5009823750066527</v>
+        <v>0.5040424347293528</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>541</v>
@@ -783,19 +783,19 @@
         <v>478739</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>449241</v>
+        <v>447033</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511069</v>
+        <v>508805</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4614511988556437</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4330182506069213</v>
+        <v>0.4308898546341353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4926138449878465</v>
+        <v>0.4904316383597708</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>236904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>211397</v>
+        <v>213609</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263354</v>
+        <v>260876</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4302518072526926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3839270838145148</v>
+        <v>0.387944611711611</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4782883869873478</v>
+        <v>0.4737883079992761</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>306</v>
@@ -833,19 +833,19 @@
         <v>211029</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>192519</v>
+        <v>193641</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>230414</v>
+        <v>229706</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4334623952001797</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3954413683984946</v>
+        <v>0.3977468660670866</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4732793611038759</v>
+        <v>0.4718253657594081</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -854,19 +854,19 @@
         <v>447934</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>418446</v>
+        <v>419360</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478920</v>
+        <v>478707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.431758423994046</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4033349637413665</v>
+        <v>0.4042168274450982</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4616259110044878</v>
+        <v>0.4614200461371999</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>47562</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>34472</v>
+        <v>34477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62655</v>
+        <v>61361</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08638018323741398</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06260584546230251</v>
+        <v>0.0626141976451686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1137900148315266</v>
+        <v>0.1114409802303474</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -904,19 +904,19 @@
         <v>40929</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30999</v>
+        <v>31885</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>52012</v>
+        <v>53347</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08406920871213251</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06367351809007142</v>
+        <v>0.06549415097340307</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.106834546900218</v>
+        <v>0.1095768896506363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>116</v>
@@ -925,19 +925,19 @@
         <v>88491</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>73290</v>
+        <v>72135</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>106088</v>
+        <v>106054</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08529572364135923</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07064375313255827</v>
+        <v>0.06953029775711327</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1022569789605974</v>
+        <v>0.102224562012173</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>12449</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6797</v>
+        <v>6384</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21618</v>
+        <v>21228</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02260996744946626</v>
+        <v>0.02260996744946625</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01234360533931448</v>
+        <v>0.01159478381867588</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03926201250859425</v>
+        <v>0.03855339434900008</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -975,19 +975,19 @@
         <v>9850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5224</v>
+        <v>5366</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17393</v>
+        <v>17047</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02023324256861465</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01072965554111076</v>
+        <v>0.01102268152138038</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.035726228432565</v>
+        <v>0.03501604952138487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>24</v>
@@ -996,19 +996,19 @@
         <v>22300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14486</v>
+        <v>14271</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33277</v>
+        <v>34276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02149465350895118</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01396260412541813</v>
+        <v>0.01375528121709028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03207562175494312</v>
+        <v>0.03303819565101628</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>224581</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>203042</v>
+        <v>201449</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>246071</v>
+        <v>249662</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4668627475554477</v>
+        <v>0.4668627475554476</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4220870027815253</v>
+        <v>0.4187760146509024</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5115376639945179</v>
+        <v>0.519002500030731</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>225</v>
@@ -1121,19 +1121,19 @@
         <v>175880</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>156260</v>
+        <v>157953</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>192877</v>
+        <v>194242</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4173883103486191</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3708285525945829</v>
+        <v>0.3748461263737832</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4577260995268693</v>
+        <v>0.4609657558708869</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>427</v>
@@ -1142,19 +1142,19 @@
         <v>400461</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>372960</v>
+        <v>372023</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>430577</v>
+        <v>432432</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4437609571512641</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4132867649366114</v>
+        <v>0.4122482493734166</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4771336076841375</v>
+        <v>0.479188880310691</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>200041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>177955</v>
+        <v>179781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>223757</v>
+        <v>222728</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4158491098213764</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3699371847474706</v>
+        <v>0.3737333870806629</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4651501028373727</v>
+        <v>0.4630114391548666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>266</v>
@@ -1192,19 +1192,19 @@
         <v>181427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>164656</v>
+        <v>163351</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199697</v>
+        <v>200144</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4305522557717134</v>
+        <v>0.4305522557717135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3907531742281604</v>
+        <v>0.3876571080063811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.473910400152027</v>
+        <v>0.4749719049984485</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>480</v>
@@ -1213,19 +1213,19 @@
         <v>381468</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>353330</v>
+        <v>348710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>407410</v>
+        <v>408755</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4227146552465181</v>
+        <v>0.422714655246518</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3915347318918129</v>
+        <v>0.3864152829441146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.451461707149395</v>
+        <v>0.4529520022719221</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>54903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42725</v>
+        <v>41076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72504</v>
+        <v>69683</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1141331203132757</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08881808591048466</v>
+        <v>0.08538995711330247</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.150721887708655</v>
+        <v>0.1448588820577625</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>87</v>
@@ -1263,19 +1263,19 @@
         <v>57253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>46835</v>
+        <v>46319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>69165</v>
+        <v>70037</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.135869242321918</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1111454330452347</v>
+        <v>0.1099230710795419</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1641377110358538</v>
+        <v>0.166208355768009</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>148</v>
@@ -1284,19 +1284,19 @@
         <v>112156</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>96292</v>
+        <v>94929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134068</v>
+        <v>132236</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1242826715399869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1067032810282969</v>
+        <v>0.1051932928415277</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1485643731842161</v>
+        <v>0.1465338325993121</v>
       </c>
     </row>
     <row r="12">
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5786</v>
+        <v>5379</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003155022309900256</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01202879351271159</v>
+        <v>0.01118111902633984</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1334,19 +1334,19 @@
         <v>6822</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3519</v>
+        <v>3333</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12765</v>
+        <v>12446</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01619019155774956</v>
+        <v>0.01619019155774957</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.008351929025279951</v>
+        <v>0.007910617055243419</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03029436829937147</v>
+        <v>0.02953659604710782</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1355,19 +1355,19 @@
         <v>8340</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4687</v>
+        <v>4485</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14328</v>
+        <v>13848</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009241716062230782</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.005193399798437499</v>
+        <v>0.004970430442075922</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01587773503442352</v>
+        <v>0.01534495282867738</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>212134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>189186</v>
+        <v>190180</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>233079</v>
+        <v>235096</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4498064238574458</v>
+        <v>0.4498064238574457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4011465529837749</v>
+        <v>0.4032552113847733</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4942186285545108</v>
+        <v>0.4984948251073866</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>92</v>
@@ -1480,19 +1480,19 @@
         <v>64187</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53716</v>
+        <v>53502</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75027</v>
+        <v>76219</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3445491671260501</v>
+        <v>0.34454916712605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2883439031943316</v>
+        <v>0.2871927860898687</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.40273853317398</v>
+        <v>0.4091363319822012</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>286</v>
@@ -1501,19 +1501,19 @@
         <v>276321</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>252223</v>
+        <v>250533</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>302954</v>
+        <v>301345</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4200016796539254</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3833729423107634</v>
+        <v>0.3808050004897907</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4604838745912103</v>
+        <v>0.4580376169091259</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>201846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>180320</v>
+        <v>180478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>223497</v>
+        <v>224250</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4279912848443335</v>
+        <v>0.4279912848443334</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3823475491194197</v>
+        <v>0.382682580624322</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4738996043118418</v>
+        <v>0.4754959304366063</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>141</v>
@@ -1551,19 +1551,19 @@
         <v>91059</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>79577</v>
+        <v>79414</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>103025</v>
+        <v>103192</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.4887937446373797</v>
+        <v>0.4887937446373796</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4271628542275763</v>
+        <v>0.4262865731097923</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.5530282005661074</v>
+        <v>0.5539219495738712</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>365</v>
@@ -1572,19 +1572,19 @@
         <v>292904</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>267135</v>
+        <v>269379</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>317422</v>
+        <v>319166</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4452081667710694</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.4060399922653288</v>
+        <v>0.4094496316951157</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4824751752918759</v>
+        <v>0.4851253879394088</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>46995</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36475</v>
+        <v>36416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>60023</v>
+        <v>59533</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09964761945367372</v>
+        <v>0.0996476194536737</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07734131528192587</v>
+        <v>0.07721704578752467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1272730055486293</v>
+        <v>0.1262319684599191</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1622,19 +1622,19 @@
         <v>26625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19727</v>
+        <v>19772</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34924</v>
+        <v>35136</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1429226723069273</v>
+        <v>0.1429226723069272</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.105889863828872</v>
+        <v>0.1061352807734453</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1874693118558773</v>
+        <v>0.1886076394278367</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -1643,19 +1643,19 @@
         <v>73620</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>60203</v>
+        <v>60947</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>89176</v>
+        <v>87779</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1119014242813682</v>
+        <v>0.1119014242813681</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09150795899690652</v>
+        <v>0.09263741608218255</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1355462487637299</v>
+        <v>0.1334215489502324</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>10637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5497</v>
+        <v>5210</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20966</v>
+        <v>20379</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02255467184454706</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01165534206255573</v>
+        <v>0.01104725325660717</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04445585434930542</v>
+        <v>0.04321080596529446</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1693,19 +1693,19 @@
         <v>4422</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1970</v>
+        <v>1777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8385</v>
+        <v>8358</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02373441592964306</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01057554776460956</v>
+        <v>0.009538575239227227</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04500854209585824</v>
+        <v>0.04486662907267162</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -1714,19 +1714,19 @@
         <v>15059</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9238</v>
+        <v>9189</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25613</v>
+        <v>25477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02288872929363707</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01404092063430645</v>
+        <v>0.0139673115720158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03893169288725735</v>
+        <v>0.03872383846200035</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>447838</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>411395</v>
+        <v>409971</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>483882</v>
+        <v>484166</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3971609488061161</v>
+        <v>0.397160948806116</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3648412873932974</v>
+        <v>0.3635784257391804</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4291259936421429</v>
+        <v>0.4293780394376432</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>372</v>
@@ -1839,19 +1839,19 @@
         <v>302872</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>277440</v>
+        <v>277291</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>328394</v>
+        <v>327605</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3526153120009481</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.323005890071036</v>
+        <v>0.3228327606911549</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3823288974846624</v>
+        <v>0.3814101515963469</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>754</v>
@@ -1860,19 +1860,19 @@
         <v>750711</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>709278</v>
+        <v>708065</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>802004</v>
+        <v>799497</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3779004233625317</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3570434470023556</v>
+        <v>0.3564331341461118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4037212179768602</v>
+        <v>0.4024591308836185</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>500954</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>465655</v>
+        <v>466107</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>538088</v>
+        <v>537758</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4442658051895209</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4129616220224354</v>
+        <v>0.4133622042642137</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4771979911628395</v>
+        <v>0.476905781805504</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>606</v>
@@ -1910,19 +1910,19 @@
         <v>408764</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>383405</v>
+        <v>384897</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>432448</v>
+        <v>431951</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4758983592348128</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4463740445147736</v>
+        <v>0.4481120156648502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5034724408264939</v>
+        <v>0.5028935784968039</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1122</v>
@@ -1931,19 +1931,19 @@
         <v>909718</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>863577</v>
+        <v>866707</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>957079</v>
+        <v>954578</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4579430058253466</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4347161269624161</v>
+        <v>0.4362918027979742</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4817844769505145</v>
+        <v>0.4805253295905177</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>156804</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>135901</v>
+        <v>133458</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>179189</v>
+        <v>180274</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1390601171036334</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1205221831364045</v>
+        <v>0.1183562286280274</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1589121497918984</v>
+        <v>0.1598738774304652</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>204</v>
@@ -1981,19 +1981,19 @@
         <v>115437</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>101378</v>
+        <v>101243</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>131365</v>
+        <v>131780</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1343956775151261</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1180279248131153</v>
+        <v>0.1178707502373511</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1529399444067512</v>
+        <v>0.1534237603187825</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>394</v>
@@ -2002,19 +2002,19 @@
         <v>272241</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>248158</v>
+        <v>246177</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>300700</v>
+        <v>301797</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.137043318965413</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1249203768188708</v>
+        <v>0.1239228915068567</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1513697180506083</v>
+        <v>0.1519219108945907</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>22003</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14119</v>
+        <v>14313</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32567</v>
+        <v>31963</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01951312890072955</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01252092114328216</v>
+        <v>0.01269309879453671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02888209413933594</v>
+        <v>0.02834607497613978</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -2052,19 +2052,19 @@
         <v>31858</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23232</v>
+        <v>23502</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>42824</v>
+        <v>42166</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03709065124911305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02704792381388042</v>
+        <v>0.0273617440026339</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04985789769847444</v>
+        <v>0.04909101584437529</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -2073,19 +2073,19 @@
         <v>53861</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41856</v>
+        <v>41606</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>67369</v>
+        <v>69696</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02711325184670877</v>
+        <v>0.02711325184670878</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02106989751057696</v>
+        <v>0.02094382103148065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03391290148712508</v>
+        <v>0.03508413679758402</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>186468</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>161914</v>
+        <v>162278</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>213010</v>
+        <v>212699</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3344127314197958</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2903784374405323</v>
+        <v>0.2910299822551758</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.382013164190357</v>
+        <v>0.3814566569783063</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>306</v>
@@ -2198,19 +2198,19 @@
         <v>224189</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>201391</v>
+        <v>203125</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>245406</v>
+        <v>245129</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2720869923780056</v>
+        <v>0.2720869923780057</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2444172334788921</v>
+        <v>0.2465219663879734</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2978364427660753</v>
+        <v>0.2975006339899341</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>459</v>
@@ -2219,19 +2219,19 @@
         <v>410657</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>378209</v>
+        <v>377990</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>445865</v>
+        <v>447208</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2972416964214678</v>
+        <v>0.2972416964214677</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.273754856521545</v>
+        <v>0.273596600308538</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3227258753799199</v>
+        <v>0.3236978428875051</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>248214</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>223252</v>
+        <v>222047</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>271359</v>
+        <v>274705</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4451478987145353</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4003825195102051</v>
+        <v>0.3982211947291691</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4866569397929591</v>
+        <v>0.4926582600114777</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>609</v>
@@ -2269,19 +2269,19 @@
         <v>385352</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>362586</v>
+        <v>359685</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>408788</v>
+        <v>407726</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4676816969860003</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4400513093806007</v>
+        <v>0.4365310993908019</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4961248121512626</v>
+        <v>0.4948358540919471</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>861</v>
@@ -2290,19 +2290,19 @@
         <v>633566</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>595951</v>
+        <v>598520</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>668956</v>
+        <v>667342</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4585870430724108</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4313609229277662</v>
+        <v>0.433220326681498</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4842035179836038</v>
+        <v>0.4830349788623362</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>94074</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>74806</v>
+        <v>76200</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>112203</v>
+        <v>113261</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1687134287348284</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1341567613527649</v>
+        <v>0.1366573187599917</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.201226492467377</v>
+        <v>0.2031223916889323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>298</v>
@@ -2340,19 +2340,19 @@
         <v>176068</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>156156</v>
+        <v>157754</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>194100</v>
+        <v>196533</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2136844480460806</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1895180971859865</v>
+        <v>0.1914582999303096</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2355692814593695</v>
+        <v>0.2385219477958709</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>403</v>
@@ -2361,19 +2361,19 @@
         <v>270142</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>241514</v>
+        <v>243496</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>300165</v>
+        <v>298041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1955341188450284</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1748123508560515</v>
+        <v>0.1762468009005244</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2172649933001458</v>
+        <v>0.2157280304488276</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>28842</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19477</v>
+        <v>19781</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>41562</v>
+        <v>40714</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05172594113084025</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0349306160538072</v>
+        <v>0.03547475203161708</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07453782624998972</v>
+        <v>0.07301697745205286</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -2411,19 +2411,19 @@
         <v>38353</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>29563</v>
+        <v>29782</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>48316</v>
+        <v>49321</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.04654686258991347</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03587865441606917</v>
+        <v>0.03614430402935292</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.05863803735683908</v>
+        <v>0.05985843559013065</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>96</v>
@@ -2432,19 +2432,19 @@
         <v>67195</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>54661</v>
+        <v>54719</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>81594</v>
+        <v>83097</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04863714166109313</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.03956482253090625</v>
+        <v>0.03960641216347618</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.05905939684155183</v>
+        <v>0.06014696943257506</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>154733</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>132132</v>
+        <v>129774</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>177338</v>
+        <v>177342</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.6567214265735594</v>
+        <v>0.6567214265735595</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5607993696820414</v>
+        <v>0.5507925109408147</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7526612012849464</v>
+        <v>0.7526800254449559</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>328</v>
@@ -2557,19 +2557,19 @@
         <v>295913</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>267751</v>
+        <v>269667</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>321130</v>
+        <v>327144</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.3571575192569016</v>
+        <v>0.3571575192569017</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3231671643514888</v>
+        <v>0.3254803895251355</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3875940297176291</v>
+        <v>0.3948526666635693</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>394</v>
@@ -2578,19 +2578,19 @@
         <v>450645</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>413938</v>
+        <v>411048</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>493562</v>
+        <v>487131</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4234850060678705</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3889897028144816</v>
+        <v>0.3862739934871098</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4638150510760807</v>
+        <v>0.4577718752205159</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>65665</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44925</v>
+        <v>44787</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>88381</v>
+        <v>90086</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.2786987446022531</v>
+        <v>0.2786987446022533</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.190671881141153</v>
+        <v>0.1900872803325472</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3751102422030305</v>
+        <v>0.3823467276684392</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>548</v>
@@ -2628,19 +2628,19 @@
         <v>380317</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>353317</v>
+        <v>349464</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>407527</v>
+        <v>406480</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4590315520285637</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4264431145793955</v>
+        <v>0.4217924623216404</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4918730670234941</v>
+        <v>0.4906091827843883</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>582</v>
@@ -2649,19 +2649,19 @@
         <v>445983</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>407688</v>
+        <v>415387</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>476832</v>
+        <v>487057</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.419103437813155</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3831171301709739</v>
+        <v>0.3903516602939779</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4480934906441072</v>
+        <v>0.4577020201804458</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>14291</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>5951</v>
+        <v>6798</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29301</v>
+        <v>32585</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.06065228883822413</v>
+        <v>0.06065228883822416</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02525535057515005</v>
+        <v>0.02885256449598856</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1243589732552401</v>
+        <v>0.13829979035883</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>222</v>
@@ -2699,19 +2699,19 @@
         <v>133400</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>115031</v>
+        <v>117917</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>151476</v>
+        <v>151330</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1610093610906808</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1388384982262303</v>
+        <v>0.1423220333277263</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1828274605126606</v>
+        <v>0.1826502389743881</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>231</v>
@@ -2720,19 +2720,19 @@
         <v>147690</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>126850</v>
+        <v>127288</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>171714</v>
+        <v>169634</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1387889526114444</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1192043545488339</v>
+        <v>0.1196161454176502</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.161364493421781</v>
+        <v>0.1594099985877817</v>
       </c>
     </row>
     <row r="32">
@@ -2752,16 +2752,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4977</v>
+        <v>4311</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.003927539985963156</v>
+        <v>0.003927539985963157</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02112284952701331</v>
+        <v>0.01829584186220528</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2770,19 +2770,19 @@
         <v>18892</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>12731</v>
+        <v>13750</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>26216</v>
+        <v>27947</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02280156762385388</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01536607816898073</v>
+        <v>0.01659556408479318</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03164191276126444</v>
+        <v>0.0337317465411797</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>33</v>
@@ -2791,19 +2791,19 @@
         <v>19817</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14042</v>
+        <v>13733</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>28272</v>
+        <v>27850</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01862260350753009</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01319604031540729</v>
+        <v>0.01290554541653513</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02656791316059158</v>
+        <v>0.02617156002672617</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>1479456</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1413538</v>
+        <v>1416837</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1540712</v>
+        <v>1549520</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.4320734068973621</v>
+        <v>0.432073406897362</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4128220885086933</v>
+        <v>0.4137856741198239</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4499632709458958</v>
+        <v>0.4525357672443507</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1625</v>
@@ -2916,19 +2916,19 @@
         <v>1288078</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1232196</v>
+        <v>1235280</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>1339471</v>
+        <v>1350844</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.3572106423651754</v>
+        <v>0.3572106423651755</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3417133657631283</v>
+        <v>0.342568713093831</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3714631978330686</v>
+        <v>0.3746170950971739</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2861</v>
@@ -2937,19 +2937,19 @@
         <v>2767533</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2682240</v>
+        <v>2683502</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>2851109</v>
+        <v>2848858</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3936737672277505</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.381541096634572</v>
+        <v>0.381720603915701</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.40556226951981</v>
+        <v>0.405242024608326</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>1453624</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1396201</v>
+        <v>1392955</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1516808</v>
+        <v>1511694</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4245293477431835</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.4077589288068261</v>
+        <v>0.4068109599592794</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4429822444118792</v>
+        <v>0.4414884931512302</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2476</v>
@@ -2987,19 +2987,19 @@
         <v>1657947</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1605866</v>
+        <v>1601687</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>1711639</v>
+        <v>1709336</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.459783207081555</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.445339826410017</v>
+        <v>0.4441811091520187</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4746731133256769</v>
+        <v>0.4740343792617909</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3967</v>
@@ -3008,19 +3008,19 @@
         <v>3111571</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3033104</v>
+        <v>3031429</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>3191627</v>
+        <v>3196934</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4426122425443047</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.4314504863309972</v>
+        <v>0.4312123093157749</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4539999597806447</v>
+        <v>0.4547548405502065</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>414629</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>381143</v>
+        <v>379377</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>455294</v>
+        <v>455876</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1210920427327589</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1113124664704155</v>
+        <v>0.11079658844599</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1329681950063014</v>
+        <v>0.1331381550244918</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>921</v>
@@ -3058,19 +3058,19 @@
         <v>549711</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>515338</v>
+        <v>516161</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>583630</v>
+        <v>589459</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1524462471223744</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.142913916016229</v>
+        <v>0.1431422333615199</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1618526859082715</v>
+        <v>0.1634693062147668</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1397</v>
@@ -3079,19 +3079,19 @@
         <v>964340</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>911272</v>
+        <v>911561</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1013369</v>
+        <v>1020002</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1371746728388238</v>
+        <v>0.1371746728388237</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.129625946290287</v>
+        <v>0.1296670248317056</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1441489283577618</v>
+        <v>0.1450924433721569</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>76375</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59076</v>
+        <v>61322</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>95391</v>
+        <v>96759</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.02230520262669566</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01725295140341595</v>
+        <v>0.01790891349397481</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.02785879444327036</v>
+        <v>0.02825824688536013</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>171</v>
@@ -3129,19 +3129,19 @@
         <v>110197</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>93602</v>
+        <v>94172</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>128253</v>
+        <v>127255</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03055990343089507</v>
+        <v>0.03055990343089506</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02595772945335057</v>
+        <v>0.02611582725172219</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03556724561398665</v>
+        <v>0.03529050442697642</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>254</v>
@@ -3150,19 +3150,19 @@
         <v>186572</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>162944</v>
+        <v>164974</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>211649</v>
+        <v>211743</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02653931738912108</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02317832594174224</v>
+        <v>0.02346711117280437</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03010644877063186</v>
+        <v>0.03011984366168116</v>
       </c>
     </row>
     <row r="38">
